--- a/verslaglegging en presentaties/testruns 2017-18-05.xlsx
+++ b/verslaglegging en presentaties/testruns 2017-18-05.xlsx
@@ -19,10 +19,11 @@
     <sheet name="len8" sheetId="4" r:id="rId5"/>
     <sheet name="len9" sheetId="5" r:id="rId6"/>
     <sheet name="len10" sheetId="6" r:id="rId7"/>
+    <sheet name="len15" sheetId="8" r:id="rId8"/>
+    <sheet name="len20" sheetId="9" r:id="rId9"/>
+    <sheet name="len25" sheetId="10" r:id="rId10"/>
+    <sheet name="len30" sheetId="11" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
     <t>Depth0</t>
   </si>
@@ -226,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Averages!$A$2:$A$7</c:f>
+              <c:f>Averages!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -247,6 +248,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,10 +310,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Averages!$A$2:$A$7</c:f>
+              <c:f>Averages!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -318,6 +331,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,10 +393,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Averages!$A$2:$A$7</c:f>
+              <c:f>Averages!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -389,6 +414,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,10 +479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Averages!$A$2:$A$7</c:f>
+              <c:f>Averages!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -463,16 +500,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Averages!$E$2:$E$7</c:f>
+              <c:f>Averages!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1E-4</c:v>
                 </c:pt>
@@ -490,6 +539,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.7000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,8 +566,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="642384272"/>
-        <c:axId val="642378832"/>
+        <c:axId val="-1833411568"/>
+        <c:axId val="-1833411024"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -533,13 +594,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Averages!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Averages!$A$2:$A$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="10"/>
                       <c:pt idx="0">
                         <c:v>5</c:v>
                       </c:pt>
@@ -557,6 +618,18 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -601,7 +674,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="642384272"/>
+        <c:axId val="-1833411568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642378832"/>
+        <c:crossAx val="-1833411024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="642378832"/>
+        <c:axId val="-1833411024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642384272"/>
+        <c:crossAx val="-1833411568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,15 +1529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1484,116 +1557,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="totals"/>
-      <sheetName val="len6"/>
-      <sheetName val="len7"/>
-      <sheetName val="len8"/>
-      <sheetName val="len9"/>
-      <sheetName val="len10"/>
-      <sheetName val="len11"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>6</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>7</v>
-          </cell>
-          <cell r="C3">
-            <v>4.200000000000001E-2</v>
-          </cell>
-          <cell r="D3">
-            <v>1.9200000000000002E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>1.6000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="C4">
-            <v>0.186</v>
-          </cell>
-          <cell r="D4">
-            <v>6.5799999999999997E-2</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>9</v>
-          </cell>
-          <cell r="C5">
-            <v>2.0714000000000001</v>
-          </cell>
-          <cell r="D5">
-            <v>0.84689999999999999</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>20.572300000000002</v>
-          </cell>
-          <cell r="D6">
-            <v>7.5368000000000013</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>11</v>
-          </cell>
-          <cell r="C7">
-            <v>132.62619999999998</v>
-          </cell>
-          <cell r="D7">
-            <v>42.049400000000006</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1859,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,9 +1995,279 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f>'len15'!E$12</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f>'len20'!E$12</f>
+        <v>0.16880000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <f>'len25'!E$12</f>
+        <v>0.21090000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <f>'len30'!E$12</f>
+        <v>0.4264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0.219</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="E6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0.219</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
+        <v>0.21090000000000003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.438</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="E6">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
+        <v>0.4264</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3230,7 +3463,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,12 +3595,246 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="C12:F12" si="0">AVERAGE(D2:D11, D14:D16)</f>
+        <f t="shared" ref="D12:F12" si="0">AVERAGE(D2:D11, D14:D16)</f>
         <v>108.60840000000003</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>3.7000000000000006E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="E6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="D12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="E6">
+        <v>0.94</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0.109</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.109</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
+        <v>0.16880000000000001</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>

--- a/verslaglegging en presentaties/testruns 2017-18-05.xlsx
+++ b/verslaglegging en presentaties/testruns 2017-18-05.xlsx
@@ -566,8 +566,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1833411568"/>
-        <c:axId val="-1833411024"/>
+        <c:axId val="-1544953872"/>
+        <c:axId val="-1272325584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -674,7 +674,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1833411568"/>
+        <c:axId val="-1544953872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1833411024"/>
+        <c:crossAx val="-1272325584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1833411024"/>
+        <c:axId val="-1272325584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1833411568"/>
+        <c:crossAx val="-1544953872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,16 +1528,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3716,7 +3716,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="D12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
+        <f t="shared" ref="E12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F12">

--- a/verslaglegging en presentaties/testruns 2017-18-05.xlsx
+++ b/verslaglegging en presentaties/testruns 2017-18-05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\studie_5_MoL_Prog_CN2\Heuristieken programmeertheorie\fruitvliegen\verslaglegging en presentaties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Documents\GitHub\fruitvliegen\verslaglegging en presentaties\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
   <si>
     <t>Depth0</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;- time to find solution</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>depth0</t>
+  </si>
+  <si>
+    <t>Breadth</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijf </t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>ZES</t>
+  </si>
+  <si>
+    <t>ZEVEN</t>
   </si>
 </sst>
 </file>
@@ -111,7 +138,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +156,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -197,7 +224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -283,7 +310,7 @@
                   <c:v>9.1600999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.49692307692305</c:v>
+                  <c:v>164.45139999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,7 +393,7 @@
                   <c:v>10.306700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>176.89984615384617</c:v>
+                  <c:v>221.57690000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,7 +476,7 @@
                   <c:v>0.64700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.016307692307691</c:v>
+                  <c:v>12.889500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>108.60840000000003</c:v>
@@ -535,7 +562,7 @@
                   <c:v>1.6000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.9000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.7000000000000006E-3</c:v>
@@ -566,8 +593,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1544953872"/>
-        <c:axId val="-1272325584"/>
+        <c:axId val="196595688"/>
+        <c:axId val="196598432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -674,7 +701,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1544953872"/>
+        <c:axId val="196595688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +759,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -770,10 +797,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1272325584"/>
+        <c:crossAx val="196598432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1272325584"/>
+        <c:axId val="196598432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -884,10 +911,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544953872"/>
+        <c:crossAx val="196595688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -927,7 +954,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -957,7 +984,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1528,16 +1555,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289083</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>60484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>507682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182404</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1560,9 +1587,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1600,7 +1627,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1672,7 +1699,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1822,15 +1849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1878,7 +1905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1903,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1928,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1953,32 +1980,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6">
         <f>'len9'!B$12</f>
-        <v>129.49692307692305</v>
+        <v>164.45139999999998</v>
       </c>
       <c r="C6">
         <f>'len9'!C$12</f>
-        <v>176.89984615384617</v>
+        <v>221.57690000000002</v>
       </c>
       <c r="D6">
         <f>'len9'!D$12</f>
-        <v>11.016307692307691</v>
+        <v>12.889500000000002</v>
       </c>
       <c r="E6">
         <f>'len9'!E$12</f>
-        <v>2E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="F6">
         <f>'len9'!F$12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1995,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -2004,7 +2031,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -2013,7 +2040,7 @@
         <v>0.16880000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -2022,13 +2049,1357 @@
         <v>0.21090000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
       <c r="E11">
         <f>'len30'!E$12</f>
         <v>0.4264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>'len5'!B$13</f>
+        <v>6.7494855771055285E-4</v>
+      </c>
+      <c r="C14">
+        <f>'len5'!C$13</f>
+        <v>7.8881063774661542E-4</v>
+      </c>
+      <c r="D14">
+        <f>'len5'!D$13</f>
+        <v>9.1893658347268138E-4</v>
+      </c>
+      <c r="E14">
+        <f>'len5'!E$13</f>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <f>'len6'!B$13</f>
+        <v>8.4327404271156772E-3</v>
+      </c>
+      <c r="C15">
+        <f>'len6'!C$13</f>
+        <v>1.6160308027867398E-2</v>
+      </c>
+      <c r="D15">
+        <f>'len6'!D$13</f>
+        <v>8.8700494800072992E-3</v>
+      </c>
+      <c r="E15">
+        <f>'len6'!E$13</f>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f>'len7'!B$13</f>
+        <v>4.6321221438510821E-2</v>
+      </c>
+      <c r="C16">
+        <f>'len7'!C$13</f>
+        <v>9.0124666743104015E-2</v>
+      </c>
+      <c r="D16">
+        <f>'len7'!D$13</f>
+        <v>6.1092370863944846E-2</v>
+      </c>
+      <c r="E16">
+        <f>'len7'!E$13</f>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <f>'len8'!B$13</f>
+        <v>28.004219294995927</v>
+      </c>
+      <c r="C17">
+        <f>'len8'!C$13</f>
+        <v>30.618342977335956</v>
+      </c>
+      <c r="D17">
+        <f>'len8'!D$13</f>
+        <v>1.1287299647538969</v>
+      </c>
+      <c r="E17">
+        <f>'len8'!E$13</f>
+        <v>5.059644256269407E-3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <f>'len9'!B$13</f>
+        <v>351.02320237468314</v>
+      </c>
+      <c r="C18">
+        <f>'len9'!C$13</f>
+        <v>437.74015154159156</v>
+      </c>
+      <c r="D18">
+        <f>'len9'!D$13</f>
+        <v>13.61503998647574</v>
+      </c>
+      <c r="E18">
+        <f>'len9'!E$13</f>
+        <v>1.7288403306519916E-3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>1E-3</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2.4</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <f>'len10'!B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>'len10'!C$13</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>'len10'!D$13</f>
+        <v>103.41387396196998</v>
+      </c>
+      <c r="E19">
+        <f>'len10'!E$13</f>
+        <v>1.05934990547138E-3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <f>'len15'!B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>'len15'!C$13</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>'len15'!D$13</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>'len15'!E$13</f>
+        <v>7.3484692283495379E-3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>0.125</v>
+      </c>
+      <c r="K20">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L20">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>'len20'!B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>'len20'!C$13</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>'len20'!D$13</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>'len20'!E$13</f>
+        <v>0.27137010397855788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <f>'len25'!B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>'len25'!C$13</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>'len25'!D$13</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>'len25'!E$13</f>
+        <v>2.5692411330974572E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>'len30'!B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>'len30'!C$13</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>'len30'!D$13</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>'len30'!E$13</f>
+        <v>3.6182254705249578E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.125</v>
+      </c>
+      <c r="E26">
+        <v>0.109</v>
+      </c>
+      <c r="F26">
+        <v>42.847999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E27">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F27">
+        <v>8.8149999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E28">
+        <v>88.85</v>
+      </c>
+      <c r="F28">
+        <v>1.5469999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F29">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.109</v>
+      </c>
+      <c r="E31">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F31">
+        <v>37.451000000000001</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F33">
+        <v>1082</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.188</v>
+      </c>
+      <c r="F35">
+        <v>8.452</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.219</v>
+      </c>
+      <c r="E36">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F36">
+        <v>93.86</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E37">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F37">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E38">
+        <v>97.409000000000006</v>
+      </c>
+      <c r="F38">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E39">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F39">
+        <v>659.1</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.188</v>
+      </c>
+      <c r="F41">
+        <v>70.551000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D42">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E42">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F43">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F44">
+        <v>18.477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.438</v>
+      </c>
+      <c r="F45">
+        <v>18.384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.25</v>
+      </c>
+      <c r="F46">
+        <v>11.6</v>
+      </c>
+      <c r="G46">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D47">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E47">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F47">
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="G47">
+        <v>3.3660000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E48">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="F48">
+        <v>3.25</v>
+      </c>
+      <c r="G48">
+        <v>145.86199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D49">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F49">
+        <v>33.015999999999998</v>
+      </c>
+      <c r="G49">
+        <v>365.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E50">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="F50">
+        <v>3.6070000000000002</v>
+      </c>
+      <c r="G50">
+        <v>149.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.109</v>
+      </c>
+      <c r="E51">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F51">
+        <v>21.565999999999999</v>
+      </c>
+      <c r="G51">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D52">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F52">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G52">
+        <v>78.430000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D53">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F53">
+        <v>39.024999999999999</v>
+      </c>
+      <c r="G53">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D54">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E54">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F54">
+        <v>5.5839999999999996</v>
+      </c>
+      <c r="G54">
+        <v>50.665999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F55">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="G55">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1E-3</v>
+      </c>
+      <c r="D56">
+        <v>1E-3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H56">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I56">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2E-3</v>
+      </c>
+      <c r="H57">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I57">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.219</v>
+      </c>
+      <c r="K57">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I58">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G59">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H59">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I59">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2E-3</v>
+      </c>
+      <c r="G60">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.94</v>
+      </c>
+      <c r="J60">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H61">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I61">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.25</v>
+      </c>
+      <c r="K61">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1E-3</v>
+      </c>
+      <c r="G62">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H62">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.109</v>
+      </c>
+      <c r="J62">
+        <v>0.219</v>
+      </c>
+      <c r="K62">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H63">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I63">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J63">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K63">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2E-3</v>
+      </c>
+      <c r="G64">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H64">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.109</v>
+      </c>
+      <c r="J64">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2E-3</v>
+      </c>
+      <c r="G65">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H65">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I65">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J65">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0.45300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2039,15 +3410,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:F12"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>0.17199999999999999</v>
       </c>
@@ -2063,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>0.219</v>
       </c>
@@ -2071,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>0.20300000000000001</v>
       </c>
@@ -2079,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>0.17199999999999999</v>
       </c>
@@ -2087,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="E6">
         <v>0.20300000000000001</v>
@@ -2096,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>0.25</v>
       </c>
@@ -2104,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>0.219</v>
       </c>
@@ -2112,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>0.20300000000000001</v>
       </c>
@@ -2120,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0.23400000000000001</v>
       </c>
@@ -2128,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>0.23400000000000001</v>
       </c>
@@ -2136,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2147,6 +3518,15 @@
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
+        <v>2.5692411330974572E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2156,15 +3536,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -2172,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>0.45300000000000001</v>
       </c>
@@ -2180,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>0.35899999999999999</v>
       </c>
@@ -2188,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>0.48399999999999999</v>
       </c>
@@ -2196,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>0.438</v>
       </c>
@@ -2204,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="E6">
         <v>0.40600000000000003</v>
@@ -2213,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>0.40600000000000003</v>
       </c>
@@ -2221,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>0.45300000000000001</v>
       </c>
@@ -2229,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>0.40600000000000003</v>
       </c>
@@ -2237,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0.40600000000000003</v>
       </c>
@@ -2245,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>0.45300000000000001</v>
       </c>
@@ -2253,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2264,6 +3644,15 @@
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
+        <v>3.6182254705249578E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2273,15 +3662,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1E-3</v>
       </c>
@@ -2315,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -2332,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -2349,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -2366,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1E-3</v>
       </c>
@@ -2383,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1E-3</v>
       </c>
@@ -2400,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1E-3</v>
       </c>
@@ -2417,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -2434,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1E-3</v>
       </c>
@@ -2451,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2E-3</v>
       </c>
@@ -2468,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2490,6 +3879,31 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>6.7494855771055285E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>7.8881063774661542E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9.1893658347268138E-4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2500,15 +3914,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="A1:H17"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +3939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1.6E-2</v>
       </c>
@@ -2542,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1.6E-2</v>
       </c>
@@ -2559,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -2576,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -2593,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -2610,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1.6E-2</v>
       </c>
@@ -2627,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1.6E-2</v>
       </c>
@@ -2644,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -2661,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1.6E-2</v>
       </c>
@@ -2678,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -2695,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2717,6 +4131,31 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>8.4327404271156772E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>1.6160308027867398E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>8.8700494800072992E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2728,15 +4167,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +4192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.125</v>
       </c>
@@ -2770,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.6E-2</v>
       </c>
@@ -2787,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>6.3E-2</v>
       </c>
@@ -2804,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7.8E-2</v>
       </c>
@@ -2821,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -2838,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.109</v>
       </c>
@@ -2855,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.6E-2</v>
       </c>
@@ -2872,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -2889,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.6E-2</v>
       </c>
@@ -2906,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2923,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2945,6 +4384,31 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>4.6321221438510821E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>9.0124666743104015E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>6.1092370863944846E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2955,15 +4419,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +4444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.109</v>
       </c>
@@ -2997,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3.1E-2</v>
       </c>
@@ -3014,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>88.85</v>
       </c>
@@ -3031,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.59399999999999997</v>
       </c>
@@ -3048,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.5629999999999999</v>
       </c>
@@ -3065,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6.3E-2</v>
       </c>
@@ -3082,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3.1E-2</v>
       </c>
@@ -3099,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.17199999999999999</v>
       </c>
@@ -3116,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -3133,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.188</v>
       </c>
@@ -3150,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3172,6 +4636,31 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>28.004219294995927</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>30.618342977335956</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.1287299647538969</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>5.059644256269407E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3185,12 +4674,12 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>42.847999999999999</v>
       </c>
@@ -3224,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>8.8149999999999995</v>
       </c>
@@ -3241,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.5469999999999999</v>
       </c>
@@ -3258,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>453</v>
       </c>
@@ -3275,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1.9219999999999999</v>
       </c>
@@ -3292,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>37.451000000000001</v>
       </c>
@@ -3309,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3326,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1082</v>
       </c>
@@ -3343,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.4540000000000006</v>
       </c>
@@ -3360,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8.452</v>
       </c>
@@ -3377,32 +4866,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <f>AVERAGE(B2:B11, B14:B16)</f>
-        <v>129.49692307692305</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>164.45139999999998</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:F12" si="0">AVERAGE(C2:C11, C14:C16)</f>
-        <v>176.89984615384617</v>
+        <f t="shared" ref="C12:F12" si="0">AVERAGE(C2:C11)</f>
+        <v>221.57690000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>11.016307692307691</v>
+        <v>12.889500000000002</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>351.02320237468314</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>437.74015154159156</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>13.61503998647574</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.7288403306519916E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>16.158000000000001</v>
       </c>
@@ -3419,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.5840000000000001</v>
       </c>
@@ -3436,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>21.204000000000001</v>
       </c>
@@ -3460,15 +4974,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:F12"/>
+      <selection activeCell="E11" sqref="D2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -3479,7 +4993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>110.4</v>
       </c>
@@ -3490,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3.3660000000000001</v>
       </c>
@@ -3501,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>145.86199999999999</v>
       </c>
@@ -3512,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>365.4</v>
       </c>
@@ -3523,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6">
         <v>149.22</v>
@@ -3535,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>91.7</v>
       </c>
@@ -3546,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>78.430000000000007</v>
       </c>
@@ -3557,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>2.64</v>
       </c>
@@ -3568,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>50.665999999999997</v>
       </c>
@@ -3579,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>88.4</v>
       </c>
@@ -3590,20 +5104,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:F12" si="0">AVERAGE(D2:D11, D14:D16)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>108.60840000000003</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:F12" si="0">AVERAGE(E2:E11, E14:E16)</f>
         <v>3.7000000000000006E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>103.41387396196998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:F13" si="1">_xlfn.STDEV.S(E2:E11)</f>
+        <v>1.05934990547138E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3614,15 +5145,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:F12"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -3630,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>3.1E-2</v>
       </c>
@@ -3638,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>1.6E-2</v>
       </c>
@@ -3646,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1.6E-2</v>
       </c>
@@ -3654,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1.6E-2</v>
       </c>
@@ -3662,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="E6">
         <v>3.1E-2</v>
@@ -3671,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1.6E-2</v>
       </c>
@@ -3679,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1.6E-2</v>
       </c>
@@ -3687,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>3.1E-2</v>
       </c>
@@ -3695,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>1.6E-2</v>
       </c>
@@ -3703,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>3.1E-2</v>
       </c>
@@ -3711,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3722,6 +5253,15 @@
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.STDEV.S(E2:E12)</f>
+        <v>7.3484692283495379E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3731,15 +5271,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:F12"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -3747,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>7.8E-2</v>
       </c>
@@ -3755,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>6.2E-2</v>
       </c>
@@ -3763,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>7.8E-2</v>
       </c>
@@ -3771,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>7.8E-2</v>
       </c>
@@ -3779,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="E6">
         <v>0.94</v>
@@ -3788,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>7.8E-2</v>
       </c>
@@ -3796,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>0.109</v>
       </c>
@@ -3804,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>7.8E-2</v>
       </c>
@@ -3812,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0.109</v>
       </c>
@@ -3820,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>7.8E-2</v>
       </c>
@@ -3828,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3839,6 +5379,15 @@
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
+        <v>0.27137010397855788</v>
       </c>
     </row>
   </sheetData>
